--- a/medicine/Pharmacie/1884_en_santé_et_médecine/1884_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1884_en_santé_et_médecine/1884_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1884_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1884_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1884 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1884_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1884_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7 janvier : le médecin et microbiologiste allemand Robert Koch annonce dans une dépêche envoyée depuis Calcutta sa découverte du bacille du choléra[1].
-2 février[2] : Takaki Kanehiro de la marine impériale japonaise commence une expérience avec bras témoin démontrant qu'une alimentation déficiente est la cause du béribéri, mais conclut à tort qu'une quantité suffisante de protéines à elle seule l'empêcherait[3].
-13 juin : épidémie de choléra à Toulon et Marseille. Un premier cas atteint un marin à Toulon le 13 juin. Des individus fuyant Toulon portent le choléra à Marseille où il est signalé à l'Hôtel-Dieu le 25 juin. Un lycéen toulonnais meurt à Marseille le 27 juin. 1 793 décès sont enregistrés entre juin et octobre, puis 1 256 entre le 14 juillet et le 9 décembre 1885[4],[5].
-17-18 septembre : l'ophtalmologue autrichien Carl Koller démontre devant le Congrès d'ophtalmologie d'Heidelberg la propriété analgésique de la cocaïne au niveau de la cornée et de la conjonctive de l’œil[6].
-Robert Koch et Friedrich Löffler formulent les postulats de Koch sur la relation de cause à effet liant un microbe et une maladie (1884-1890)[7].
-Friedrich Löffler isole le bacille de Löffler-Klebs responsable de la diphtérie et découvert l'année précédente par Edwin Klebs[8].
-Georg Theodor August Gaffky (en) isole le bacille pathogène Salmonella typhi comme cause de la fièvre typhoïde[9],[10].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7 janvier : le médecin et microbiologiste allemand Robert Koch annonce dans une dépêche envoyée depuis Calcutta sa découverte du bacille du choléra.
+2 février : Takaki Kanehiro de la marine impériale japonaise commence une expérience avec bras témoin démontrant qu'une alimentation déficiente est la cause du béribéri, mais conclut à tort qu'une quantité suffisante de protéines à elle seule l'empêcherait.
+13 juin : épidémie de choléra à Toulon et Marseille. Un premier cas atteint un marin à Toulon le 13 juin. Des individus fuyant Toulon portent le choléra à Marseille où il est signalé à l'Hôtel-Dieu le 25 juin. Un lycéen toulonnais meurt à Marseille le 27 juin. 1 793 décès sont enregistrés entre juin et octobre, puis 1 256 entre le 14 juillet et le 9 décembre 1885,.
+17-18 septembre : l'ophtalmologue autrichien Carl Koller démontre devant le Congrès d'ophtalmologie d'Heidelberg la propriété analgésique de la cocaïne au niveau de la cornée et de la conjonctive de l’œil.
+Robert Koch et Friedrich Löffler formulent les postulats de Koch sur la relation de cause à effet liant un microbe et une maladie (1884-1890).
+Friedrich Löffler isole le bacille de Löffler-Klebs responsable de la diphtérie et découvert l'année précédente par Edwin Klebs.
+Georg Theodor August Gaffky (en) isole le bacille pathogène Salmonella typhi comme cause de la fièvre typhoïde,.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1884_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1884_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'ophtalmologiste Carl Koller annonce l'utilisation d'un anesthésique local (cocaïne) en chirurgie[11].
-Friedrich Schultze (en) décrit le premier le trouble qui deviendra connu sous le nom de maladie de Charcot-Marie-Tooth[12].
-Vladimir Bekhterev publie une étude sur la formation de la conception humaine de l'espace[13].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'ophtalmologiste Carl Koller annonce l'utilisation d'un anesthésique local (cocaïne) en chirurgie.
+Friedrich Schultze (en) décrit le premier le trouble qui deviendra connu sous le nom de maladie de Charcot-Marie-Tooth.
+Vladimir Bekhterev publie une étude sur la formation de la conception humaine de l'espace.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1884_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1884_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médaille Copley : Carl Ludwig[14].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Médaille Copley : Carl Ludwig.</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1884_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1884_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>12 avril : Otto Fritz Meyerhof (mort en 1951), médecin germano-américain, colauréat avec Archibald Vivian Hill du prix Nobel de physiologie ou médecine de 1922.
 2 juillet : Alfons Maria Jakob (mort en 1931), neurologue allemand.</t>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1884_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1884_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,11 +660,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11 avril : Jean-Baptiste Dumas (né en 1800), pharmacien, chimiste et homme politique français[15].
-12 mai :  Charles Adolphe Wurtz (né en 1817), médecin et chimiste français[16], récompensé par la médaille Copley en 1881[14].
-13 juillet : Alexandre Grigorievitch Fischer von Waldheim (né en 1803), médecin, zoologiste et botaniste russe d'origine allemande, fils de Gotthelf Fischer von Waldheim (1771-1853) et père d'Alexandre Alexandrovitch Fischer von Waldheim[17].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>11 avril : Jean-Baptiste Dumas (né en 1800), pharmacien, chimiste et homme politique français.
+12 mai :  Charles Adolphe Wurtz (né en 1817), médecin et chimiste français, récompensé par la médaille Copley en 1881.
+13 juillet : Alexandre Grigorievitch Fischer von Waldheim (né en 1803), médecin, zoologiste et botaniste russe d'origine allemande, fils de Gotthelf Fischer von Waldheim (1771-1853) et père d'Alexandre Alexandrovitch Fischer von Waldheim.</t>
         </is>
       </c>
     </row>
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1884_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1884_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,7 +694,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Patrick Berche, Une histoire des microbes, John Libbey Eurotext, 2007 (ISBN 9782742009121, présentation en ligne)
